--- a/biology/Botanique/Asparagopsis/Asparagopsis.xlsx
+++ b/biology/Botanique/Asparagopsis/Asparagopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asparagopsis est un genre d'algues rouges de la famille des Bonnemaisoniaceae.  
 </t>
@@ -511,11 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux espèces ont une répartition cosmopolite, Asparagopsis armata est retrouvée dans les zones tempérées et Asparagopsis taxiformis dans les zones tropicale à tempérées chaudes. 
-Espèce invasive
-Asparagopsis peut former en Méditerranée des tapis monospécifiques[2],[3],[4],[5],[6] ce qui a certainement justifié son classement comme l’un  des « 100 taxons les plus menaçants en tant qu’espèces invasives ».
 </t>
         </is>
       </c>
@@ -541,24 +553,98 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèce invasive</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asparagopsis peut former en Méditerranée des tapis monospécifiques ce qui a certainement justifié son classement comme l’un  des « 100 taxons les plus menaçants en tant qu’espèces invasives ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asparagopsis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagopsis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est connu pour sa nomenclature dynamique complexifiée par des confusions taxonomique. Au sein du genre, huit espèces nominales ont été répertoriées parmi lesquelles quatre sont actuellement acceptées : A. armata Harvey, A. taxiformis (Delile) Trevisan de Saint-Léon, A. sanfordiana f. amplissima Setchell &amp; Gardner et A. svedelii W.R.Taylor[7]. Toutefois, en excluant les synonymies, seules trois espèces sont retenues à ce jour comme taxonomiquement différentes : A. armata, A. svedelii et A. taxiformis[8].  
-Liste d'espèces
-Selon AlgaeBase                                           (28 août 2014)[9] et World Register of Marine Species                               (28 août 2014)[10] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est connu pour sa nomenclature dynamique complexifiée par des confusions taxonomique. Au sein du genre, huit espèces nominales ont été répertoriées parmi lesquelles quatre sont actuellement acceptées : A. armata Harvey, A. taxiformis (Delile) Trevisan de Saint-Léon, A. sanfordiana f. amplissima Setchell &amp; Gardner et A. svedelii W.R.Taylor. Toutefois, en excluant les synonymies, seules trois espèces sont retenues à ce jour comme taxonomiquement différentes : A. armata, A. svedelii et A. taxiformis.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Asparagopsis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagopsis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (28 août 2014) et World Register of Marine Species                               (28 août 2014) :
 Asparagopsis armata Harvey, 1855
 Asparagopsis svedelii W.R.Taylor, 1945
 Asparagopsis taxiformis (Delile) Trevisan de Saint-Léon, 1845 (espèce type)
 A. sanfordiana f. amplissima  Setchell &amp; Gardner, 1924 -- Synonyme de Asparagopsis taxiformis.
-Selon ITIS      (7 juillet 2014)[11] :
+Selon ITIS      (7 juillet 2014) :
 Asparagopsis armata
 Asparagopsis hamifera
 Asparagopsis sanfordiana
 Asparagopsis taxiformis (Delile) Trevisan
-ITIS      (7 juillet 2014)[11] ajoute donc à la liste l'espèce Asparagopsis hamifera, qui est cependant classée par AlgaeBase et WoRMS comme synonyme de Bonnemaisonia hamifera Hariot, 1891. 
+ITIS      (7 juillet 2014) ajoute donc à la liste l'espèce Asparagopsis hamifera, qui est cependant classée par AlgaeBase et WoRMS comme synonyme de Bonnemaisonia hamifera Hariot, 1891. 
 			Deux sars à tête noire avec, en fond, Asparagopsis armata.
 			Asparagopsis taxiformis à Mayotte.
 </t>
